--- a/Semester 1/Discrete Wiskunde/oefeningen/Velden/05.xlsx
+++ b/Semester 1/Discrete Wiskunde/oefeningen/Velden/05.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -1006,7 +1006,7 @@
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -1017,14 +1017,14 @@
     <col min="4" max="5" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="14" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="1" customWidth="1"/>
+    <col min="13" max="14" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.140625" style="1"/>
-    <col min="16" max="18" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.140625" style="1"/>
-    <col min="20" max="22" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1077,6 +1077,7 @@
         <v>14</v>
       </c>
       <c r="H4" s="1">
+        <f>H3</f>
         <v>2</v>
       </c>
       <c r="I4" s="1">
@@ -1088,6 +1089,7 @@
         <v>512</v>
       </c>
       <c r="L4" s="1">
+        <f>L3</f>
         <v>3</v>
       </c>
       <c r="M4" s="1">
@@ -1099,6 +1101,7 @@
         <v>1530</v>
       </c>
       <c r="P4" s="1">
+        <f>P3</f>
         <v>4</v>
       </c>
       <c r="Q4" s="1">
@@ -1110,6 +1113,7 @@
         <v>1951</v>
       </c>
       <c r="T4" s="1">
+        <f>T3</f>
         <v>5</v>
       </c>
       <c r="U4" s="1">
@@ -1553,43 +1557,43 @@
         <v>229</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" ref="J13:J16" si="12">MOD(J12*J12,2017)</f>
+        <f>MOD(J12*J12,2017)</f>
         <v>1788</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" ref="L13:L16" si="13">MOD(L12*L12,$A$2)</f>
+        <f t="shared" ref="L13:L16" si="12">MOD(L12*L12,$A$2)</f>
         <v>555</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" ref="M13:M16" si="14">MOD(M12*M12,2017)</f>
+        <f t="shared" ref="M13:M16" si="13">MOD(M12*M12,2017)</f>
         <v>1023</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" ref="N13:N16" si="15">MOD(N12*N12,2017)</f>
+        <f t="shared" ref="N13:N16" si="14">MOD(N12*N12,2017)</f>
         <v>1788</v>
       </c>
       <c r="P13" s="1">
-        <f t="shared" ref="P13:P16" si="16">MOD(P12*P12,$A$2)</f>
+        <f t="shared" ref="P13:P16" si="15">MOD(P12*P12,$A$2)</f>
         <v>1723</v>
       </c>
       <c r="Q13" s="1">
-        <f t="shared" ref="Q13:Q16" si="17">MOD(Q12*Q12,2017)</f>
+        <f t="shared" ref="Q13:Q16" si="16">MOD(Q12*Q12,2017)</f>
         <v>2016</v>
       </c>
       <c r="R13" s="1">
-        <f t="shared" ref="R13:R16" si="18">MOD(R12*R12,2017)</f>
+        <f t="shared" ref="R13:R16" si="17">MOD(R12*R12,2017)</f>
         <v>2016</v>
       </c>
       <c r="T13" s="1">
-        <f t="shared" ref="T13:T16" si="19">MOD(T12*T12,$A$2)</f>
+        <f t="shared" ref="T13:T16" si="18">MOD(T12*T12,$A$2)</f>
         <v>1533</v>
       </c>
       <c r="U13" s="1">
-        <f t="shared" ref="U13:U16" si="20">MOD(U12*U12,2017)</f>
+        <f t="shared" ref="U13:U16" si="19">MOD(U12*U12,2017)</f>
         <v>1717</v>
       </c>
       <c r="V13" s="1">
-        <f t="shared" ref="V13:V16" si="21">MOD(V12*V12,2017)</f>
+        <f t="shared" ref="V13:V16" si="20">MOD(V12*V12,2017)</f>
         <v>1579</v>
       </c>
     </row>
@@ -1612,43 +1616,43 @@
         <v>2016</v>
       </c>
       <c r="J14" s="1">
+        <f t="shared" ref="J13:J16" si="21">MOD(J13*J13,2017)</f>
+        <v>2016</v>
+      </c>
+      <c r="L14" s="1">
         <f t="shared" si="12"/>
+        <v>1441</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="13"/>
+        <v>1723</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="14"/>
         <v>2016</v>
       </c>
-      <c r="L14" s="1">
-        <f t="shared" si="13"/>
-        <v>1441</v>
-      </c>
-      <c r="M14" s="1">
-        <f t="shared" si="14"/>
-        <v>1723</v>
-      </c>
-      <c r="N14" s="1">
+      <c r="P14" s="1">
         <f t="shared" si="15"/>
-        <v>2016</v>
-      </c>
-      <c r="P14" s="1">
+        <v>1722</v>
+      </c>
+      <c r="Q14" s="3">
         <f t="shared" si="16"/>
-        <v>1722</v>
-      </c>
-      <c r="Q14" s="3">
+        <v>1</v>
+      </c>
+      <c r="R14" s="3">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="1">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T14" s="1">
+        <v>284</v>
+      </c>
+      <c r="U14" s="4">
         <f t="shared" si="19"/>
-        <v>284</v>
-      </c>
-      <c r="U14" s="4">
+        <v>1252</v>
+      </c>
+      <c r="V14" s="4">
         <f t="shared" si="20"/>
-        <v>1252</v>
-      </c>
-      <c r="V14" s="4">
-        <f t="shared" si="21"/>
         <v>229</v>
       </c>
     </row>
@@ -1671,43 +1675,43 @@
         <v>1</v>
       </c>
       <c r="J15" s="3">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
         <f t="shared" si="12"/>
+        <v>988</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="13"/>
+        <v>1722</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="L15" s="1">
-        <f t="shared" si="13"/>
-        <v>988</v>
-      </c>
-      <c r="M15" s="1">
-        <f t="shared" si="14"/>
-        <v>1722</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="P15" s="1">
         <f t="shared" si="15"/>
+        <v>294</v>
+      </c>
+      <c r="Q15" s="3">
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="P15" s="1">
-        <f t="shared" si="16"/>
-        <v>294</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="1">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T15" s="1">
+        <v>1993</v>
+      </c>
+      <c r="U15" s="4">
         <f t="shared" si="19"/>
-        <v>1993</v>
-      </c>
-      <c r="U15" s="4">
+        <v>295</v>
+      </c>
+      <c r="V15" s="4">
         <f t="shared" si="20"/>
-        <v>295</v>
-      </c>
-      <c r="V15" s="4">
-        <f t="shared" si="21"/>
         <v>2016</v>
       </c>
     </row>
@@ -1730,43 +1734,43 @@
         <v>1</v>
       </c>
       <c r="J16" s="3">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
         <f t="shared" si="12"/>
+        <v>1933</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="13"/>
+        <v>294</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="L16" s="1">
-        <f t="shared" si="13"/>
-        <v>1933</v>
-      </c>
-      <c r="M16" s="1">
-        <f t="shared" si="14"/>
-        <v>294</v>
-      </c>
-      <c r="N16" s="3">
+      <c r="P16" s="1">
         <f t="shared" si="15"/>
+        <v>1722</v>
+      </c>
+      <c r="Q16" s="3">
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="P16" s="1">
-        <f t="shared" si="16"/>
-        <v>1722</v>
-      </c>
-      <c r="Q16" s="3">
+      <c r="R16" s="3">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="R16" s="3">
+      <c r="T16" s="1">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T16" s="1">
+        <v>576</v>
+      </c>
+      <c r="U16" s="4">
         <f t="shared" si="19"/>
-        <v>576</v>
-      </c>
-      <c r="U16" s="4">
+        <v>294</v>
+      </c>
+      <c r="V16" s="5">
         <f t="shared" si="20"/>
-        <v>294</v>
-      </c>
-      <c r="V16" s="5">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
